--- a/spreadsheets/CountryMenuWebApi/workbooks/CountryMenu.xlsx
+++ b/spreadsheets/CountryMenuWebApi/workbooks/CountryMenu.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Tables" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Table" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Orders" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -432,7 +432,7 @@
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -497,7 +497,7 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.53"/>
   </cols>

--- a/spreadsheets/CountryMenuWebApi/workbooks/CountryMenu.xlsx
+++ b/spreadsheets/CountryMenuWebApi/workbooks/CountryMenu.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Menu" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Table" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Orders" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Order" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>

--- a/spreadsheets/CountryMenuWebApi/workbooks/CountryMenu.xlsx
+++ b/spreadsheets/CountryMenuWebApi/workbooks/CountryMenu.xlsx
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
-    <t>Id</t>
+    <t>Table Id</t>
   </si>
   <si>
     <t>Menu Id</t>
   </si>
   <si>
-    <t>Table Id</t>
-  </si>
-  <si>
     <t>Number of Servings</t>
+  </si>
+  <si>
+    <t>Partial Account</t>
   </si>
   <si>
     <t>ID</t>
@@ -1220,9 +1220,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="9.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="19.433571428571426" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="19.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>

--- a/spreadsheets/CountryMenuWebApi/workbooks/CountryMenu.xlsx
+++ b/spreadsheets/CountryMenuWebApi/workbooks/CountryMenu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Menu"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Name</t>
@@ -581,7 +578,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -597,16 +594,16 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -618,11 +615,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -634,11 +631,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -650,11 +647,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -666,11 +663,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -682,11 +679,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -698,11 +695,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -714,11 +711,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -730,11 +727,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -746,11 +743,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -762,11 +759,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -778,11 +775,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -794,11 +791,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -810,11 +807,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -839,7 +836,7 @@
   <cols>
     <col min="1" max="1" style="8" width="3.862142857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="16.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="11.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="11.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="4" width="11.576428571428572" customWidth="1" bestFit="1"/>
@@ -848,13 +845,13 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -866,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7">
         <v>25</v>
@@ -881,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
         <v>25</v>
@@ -896,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>18</v>
@@ -911,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7">
         <v>15</v>
@@ -926,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
@@ -941,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
         <v>15</v>
@@ -956,7 +953,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -971,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>10</v>
@@ -986,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>10</v>
@@ -1001,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
@@ -1016,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
@@ -1031,7 +1028,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>8</v>
@@ -1046,7 +1043,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -1061,7 +1058,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
@@ -1076,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>6</v>
@@ -1091,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -1106,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>4</v>
@@ -1121,7 +1118,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7">
         <v>4</v>
@@ -1136,7 +1133,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -1151,7 +1148,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -1166,7 +1163,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -1181,7 +1178,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
@@ -1196,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -1211,7 +1208,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -1226,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -1248,7 +1245,7 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
